--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69827.70331025346</v>
+        <v>-69827.70331025343</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318765</v>
+        <v>-111406.0580318764</v>
       </c>
       <c r="F6" t="n">
         <v>21693.94196812358</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69827.70331025343</v>
+        <v>-56101.34517283527</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318764</v>
+        <v>-111406.0580318765</v>
       </c>
       <c r="F6" t="n">
         <v>21693.94196812358</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56101.34517283527</v>
+        <v>-213853.640776218</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318765</v>
+        <v>-129401.5468711704</v>
       </c>
       <c r="F6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="G6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="H6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="I6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="J6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="K6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="L6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="M6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="N6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="O6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
       <c r="P6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829689</v>
       </c>
     </row>
   </sheetData>
